--- a/Instances/04_01_OneResourcePerLevelC=1_NonStationary.xlsx
+++ b/Instances/04_01_OneResourcePerLevelC=1_NonStationary.xlsx
@@ -2262,7 +2262,7 @@
         <v>0.085536</v>
       </c>
       <c r="E2" t="n">
-        <v>56.59956</v>
+        <v>56.59518599999999</v>
       </c>
       <c r="F2" t="n">
         <v>0.85536</v>
@@ -2285,13 +2285,13 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>1210</v>
+        <v>1207</v>
       </c>
       <c r="D3" t="n">
         <v>0.083916</v>
       </c>
       <c r="E3" t="n">
-        <v>20.4859935</v>
+        <v>20.62331059090909</v>
       </c>
       <c r="F3" t="n">
         <v>0.83916</v>
@@ -2314,13 +2314,13 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="D4" t="n">
         <v>0.08401600000000001</v>
       </c>
       <c r="E4" t="n">
-        <v>5.164119818181818</v>
+        <v>5.228563909090909</v>
       </c>
       <c r="F4" t="n">
         <v>0.84016</v>
@@ -2349,7 +2349,7 @@
         <v>0.08357200000000001</v>
       </c>
       <c r="E5" t="n">
-        <v>7.162500272727272</v>
+        <v>7.149679568181818</v>
       </c>
       <c r="F5" t="n">
         <v>0.83572</v>
@@ -2372,13 +2372,13 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>610</v>
+        <v>593</v>
       </c>
       <c r="D6" t="n">
         <v>0.081992</v>
       </c>
       <c r="E6" t="n">
-        <v>10.15070277272727</v>
+        <v>10.07104009090909</v>
       </c>
       <c r="F6" t="n">
         <v>0.81992</v>
@@ -2401,13 +2401,13 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>184</v>
+        <v>171</v>
       </c>
       <c r="D7" t="n">
         <v>0.08217600000000001</v>
       </c>
       <c r="E7" t="n">
-        <v>3.017166545454546</v>
+        <v>2.966740363636364</v>
       </c>
       <c r="F7" t="n">
         <v>0.8217600000000002</v>
@@ -2430,13 +2430,13 @@
         <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="D8" t="n">
         <v>0.08182400000000001</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9456250909090909</v>
+        <v>1.033492909090909</v>
       </c>
       <c r="F8" t="n">
         <v>0.8182400000000001</v>
@@ -2459,7 +2459,7 @@
         <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="D9" t="n">
         <v>0.086564</v>
@@ -2488,13 +2488,13 @@
         <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>602</v>
+        <v>605</v>
       </c>
       <c r="D10" t="n">
         <v>0.0864</v>
       </c>
       <c r="E10" t="n">
-        <v>10.58596363636364</v>
+        <v>10.60805454545454</v>
       </c>
       <c r="F10" t="n">
         <v>0.8640000000000001</v>
@@ -2517,13 +2517,13 @@
         <v>1</v>
       </c>
       <c r="C11" t="n">
-        <v>1807</v>
+        <v>1803</v>
       </c>
       <c r="D11" t="n">
         <v>0.085956</v>
       </c>
       <c r="E11" t="n">
-        <v>31.60348159090909</v>
+        <v>31.57710872727273</v>
       </c>
       <c r="F11" t="n">
         <v>0.8595600000000001</v>
@@ -2546,13 +2546,13 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>421</v>
+        <v>414</v>
       </c>
       <c r="D12" t="n">
         <v>0.08652000000000001</v>
       </c>
       <c r="E12" t="n">
-        <v>7.415157272727273</v>
+        <v>7.401884318181819</v>
       </c>
       <c r="F12" t="n">
         <v>0.8652000000000002</v>
@@ -2575,13 +2575,13 @@
         <v>1</v>
       </c>
       <c r="C13" t="n">
-        <v>3291</v>
+        <v>3296</v>
       </c>
       <c r="D13" t="n">
         <v>0.081928</v>
       </c>
       <c r="E13" t="n">
-        <v>54.21212999999999</v>
+        <v>54.20794049999999</v>
       </c>
       <c r="F13" t="n">
         <v>0.81928</v>
@@ -2610,7 +2610,7 @@
         <v>0.08210000000000001</v>
       </c>
       <c r="E14" t="n">
-        <v>20.0426625</v>
+        <v>20.17700795454546</v>
       </c>
       <c r="F14" t="n">
         <v>0.8210000000000001</v>
@@ -2639,7 +2639,7 @@
         <v>0.08099600000000001</v>
       </c>
       <c r="E15" t="n">
-        <v>4.978492772727273</v>
+        <v>5.040620386363637</v>
       </c>
       <c r="F15" t="n">
         <v>0.8099600000000001</v>
@@ -2662,13 +2662,13 @@
         <v>1</v>
       </c>
       <c r="C16" t="n">
-        <v>432</v>
+        <v>438</v>
       </c>
       <c r="D16" t="n">
         <v>0.080152</v>
       </c>
       <c r="E16" t="n">
-        <v>6.869390727272727</v>
+        <v>6.857094681818182</v>
       </c>
       <c r="F16" t="n">
         <v>0.80152</v>
@@ -2697,7 +2697,7 @@
         <v>0.080388</v>
       </c>
       <c r="E17" t="n">
-        <v>9.952125749999999</v>
+        <v>9.8740215</v>
       </c>
       <c r="F17" t="n">
         <v>0.80388</v>
@@ -2726,7 +2726,7 @@
         <v>0.08056800000000001</v>
       </c>
       <c r="E18" t="n">
-        <v>2.958127363636364</v>
+        <v>2.908687909090909</v>
       </c>
       <c r="F18" t="n">
         <v>0.8056800000000002</v>
@@ -2755,7 +2755,7 @@
         <v>0.08024000000000001</v>
       </c>
       <c r="E19" t="n">
-        <v>0.9273190909090909</v>
+        <v>1.013485909090909</v>
       </c>
       <c r="F19" t="n">
         <v>0.8024</v>
@@ -2784,7 +2784,7 @@
         <v>0.01052</v>
       </c>
       <c r="E20" t="n">
-        <v>12.88777704545455</v>
+        <v>12.90552954545455</v>
       </c>
       <c r="F20" t="n">
         <v>0.1052</v>
@@ -2813,7 +2813,7 @@
         <v>0.011168</v>
       </c>
       <c r="E21" t="n">
-        <v>13.68162490909091</v>
+        <v>13.70047090909091</v>
       </c>
       <c r="F21" t="n">
         <v>0.11168</v>
@@ -2842,7 +2842,7 @@
         <v>0.013824</v>
       </c>
       <c r="E22" t="n">
-        <v>16.93542109090909</v>
+        <v>16.95874909090909</v>
       </c>
       <c r="F22" t="n">
         <v>0.13824</v>
@@ -2871,7 +2871,7 @@
         <v>0.042536</v>
       </c>
       <c r="E23" t="n">
-        <v>52.10974186363637</v>
+        <v>52.18152136363636</v>
       </c>
       <c r="F23" t="n">
         <v>0.4253600000000001</v>
@@ -2981,34 +2981,34 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>597</v>
+        <v>608</v>
       </c>
       <c r="D2" t="n">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>304</v>
+        <v>292</v>
       </c>
       <c r="G2" t="n">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="H2" t="n">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="I2" t="n">
         <v>419</v>
       </c>
       <c r="J2" t="n">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="K2" t="n">
-        <v>896</v>
+        <v>889</v>
       </c>
       <c r="L2" t="n">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -3052,34 +3052,34 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>602</v>
+        <v>589</v>
       </c>
       <c r="D3" t="n">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
+        <v>296</v>
+      </c>
+      <c r="G3" t="n">
+        <v>91</v>
+      </c>
+      <c r="H3" t="n">
+        <v>25</v>
+      </c>
+      <c r="I3" t="n">
+        <v>416</v>
+      </c>
+      <c r="J3" t="n">
         <v>301</v>
       </c>
-      <c r="G3" t="n">
-        <v>94</v>
-      </c>
-      <c r="H3" t="n">
-        <v>29</v>
-      </c>
-      <c r="I3" t="n">
-        <v>418</v>
-      </c>
-      <c r="J3" t="n">
-        <v>296</v>
-      </c>
       <c r="K3" t="n">
-        <v>895</v>
+        <v>898</v>
       </c>
       <c r="L3" t="n">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -3123,34 +3123,34 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>597</v>
+        <v>603</v>
       </c>
       <c r="D4" t="n">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
+        <v>303</v>
+      </c>
+      <c r="G4" t="n">
+        <v>87</v>
+      </c>
+      <c r="H4" t="n">
+        <v>33</v>
+      </c>
+      <c r="I4" t="n">
+        <v>423</v>
+      </c>
+      <c r="J4" t="n">
         <v>300</v>
       </c>
-      <c r="G4" t="n">
-        <v>91</v>
-      </c>
-      <c r="H4" t="n">
-        <v>27</v>
-      </c>
-      <c r="I4" t="n">
-        <v>418</v>
-      </c>
-      <c r="J4" t="n">
-        <v>298</v>
-      </c>
       <c r="K4" t="n">
-        <v>891</v>
+        <v>895</v>
       </c>
       <c r="L4" t="n">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
@@ -3194,34 +3194,34 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="D5" t="n">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="G5" t="n">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="H5" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="I5" t="n">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="J5" t="n">
         <v>296</v>
       </c>
       <c r="K5" t="n">
-        <v>904</v>
+        <v>900</v>
       </c>
       <c r="L5" t="n">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -3265,34 +3265,34 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>597</v>
+        <v>602</v>
       </c>
       <c r="D6" t="n">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="G6" t="n">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="H6" t="n">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="I6" t="n">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="J6" t="n">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="K6" t="n">
-        <v>910</v>
+        <v>906</v>
       </c>
       <c r="L6" t="n">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -3336,34 +3336,34 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>600</v>
+        <v>595</v>
       </c>
       <c r="D7" t="n">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="G7" t="n">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="H7" t="n">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="I7" t="n">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="J7" t="n">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="K7" t="n">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="L7" t="n">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="M7" t="n">
         <v>0</v>
@@ -3407,34 +3407,34 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>593</v>
+        <v>607</v>
       </c>
       <c r="D8" t="n">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>310</v>
+        <v>296</v>
       </c>
       <c r="G8" t="n">
-        <v>83</v>
+        <v>97</v>
       </c>
       <c r="H8" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="I8" t="n">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="J8" t="n">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="K8" t="n">
-        <v>903</v>
+        <v>896</v>
       </c>
       <c r="L8" t="n">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -3478,34 +3478,34 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>589</v>
+        <v>601</v>
       </c>
       <c r="D9" t="n">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>298</v>
+        <v>305</v>
       </c>
       <c r="G9" t="n">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="H9" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="I9" t="n">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="J9" t="n">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="K9" t="n">
-        <v>894</v>
+        <v>904</v>
       </c>
       <c r="L9" t="n">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -3636,34 +3636,34 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>14.925</v>
+        <v>15.2</v>
       </c>
       <c r="D2" t="n">
-        <v>3.599999999999999</v>
+        <v>3.824999999999999</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>7.599999999999998</v>
+        <v>7.299999999999998</v>
       </c>
       <c r="G2" t="n">
-        <v>2.225</v>
+        <v>1.975</v>
       </c>
       <c r="H2" t="n">
-        <v>0.5999999999999999</v>
+        <v>0.7749999999999998</v>
       </c>
       <c r="I2" t="n">
         <v>10.475</v>
       </c>
       <c r="J2" t="n">
-        <v>7.524999999999999</v>
+        <v>7.474999999999999</v>
       </c>
       <c r="K2" t="n">
-        <v>22.4</v>
+        <v>22.22499999999999</v>
       </c>
       <c r="L2" t="n">
-        <v>5.074999999999999</v>
+        <v>5.049999999999999</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -3707,34 +3707,34 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>28.59499999999999</v>
+        <v>27.97749999999999</v>
       </c>
       <c r="D3" t="n">
-        <v>7.124999999999998</v>
+        <v>6.934999999999998</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
+        <v>14.06</v>
+      </c>
+      <c r="G3" t="n">
+        <v>4.322499999999999</v>
+      </c>
+      <c r="H3" t="n">
+        <v>1.1875</v>
+      </c>
+      <c r="I3" t="n">
+        <v>19.75999999999999</v>
+      </c>
+      <c r="J3" t="n">
         <v>14.2975</v>
       </c>
-      <c r="G3" t="n">
-        <v>4.464999999999999</v>
-      </c>
-      <c r="H3" t="n">
-        <v>1.3775</v>
-      </c>
-      <c r="I3" t="n">
-        <v>19.85499999999999</v>
-      </c>
-      <c r="J3" t="n">
-        <v>14.06</v>
-      </c>
       <c r="K3" t="n">
-        <v>42.51249999999999</v>
+        <v>42.65499999999999</v>
       </c>
       <c r="L3" t="n">
-        <v>10.2125</v>
+        <v>9.927499999999997</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -3778,34 +3778,34 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>40.44674999999999</v>
+        <v>40.85324999999999</v>
       </c>
       <c r="D4" t="n">
-        <v>10.7045</v>
+        <v>10.90775</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
+        <v>20.52824999999999</v>
+      </c>
+      <c r="G4" t="n">
+        <v>5.894249999999998</v>
+      </c>
+      <c r="H4" t="n">
+        <v>2.235749999999999</v>
+      </c>
+      <c r="I4" t="n">
+        <v>28.65824999999999</v>
+      </c>
+      <c r="J4" t="n">
         <v>20.32499999999999</v>
       </c>
-      <c r="G4" t="n">
-        <v>6.165249999999998</v>
-      </c>
-      <c r="H4" t="n">
-        <v>1.829249999999999</v>
-      </c>
-      <c r="I4" t="n">
-        <v>28.31949999999999</v>
-      </c>
-      <c r="J4" t="n">
-        <v>20.18949999999999</v>
-      </c>
       <c r="K4" t="n">
-        <v>60.36524999999998</v>
+        <v>60.63624999999998</v>
       </c>
       <c r="L4" t="n">
-        <v>14.29525</v>
+        <v>14.49849999999999</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
@@ -3849,34 +3849,34 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>51.499025</v>
+        <v>51.670975</v>
       </c>
       <c r="D5" t="n">
-        <v>13.58405</v>
+        <v>12.89625</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>25.706525</v>
+        <v>26.1364</v>
       </c>
       <c r="G5" t="n">
-        <v>8.167624999999999</v>
+        <v>7.565799999999999</v>
       </c>
       <c r="H5" t="n">
-        <v>2.4073</v>
+        <v>2.57925</v>
       </c>
       <c r="I5" t="n">
-        <v>36.28145</v>
+        <v>36.1095</v>
       </c>
       <c r="J5" t="n">
         <v>25.4486</v>
       </c>
       <c r="K5" t="n">
-        <v>77.7214</v>
+        <v>77.3775</v>
       </c>
       <c r="L5" t="n">
-        <v>18.312675</v>
+        <v>18.5706</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -3920,34 +3920,34 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>61.11936749999999</v>
+        <v>61.63125499999999</v>
       </c>
       <c r="D6" t="n">
-        <v>15.15187</v>
+        <v>15.766135</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>31.53226999999999</v>
+        <v>30.91800499999999</v>
       </c>
       <c r="G6" t="n">
-        <v>8.804464999999999</v>
+        <v>9.111597499999998</v>
       </c>
       <c r="H6" t="n">
-        <v>3.992722499999999</v>
+        <v>3.071324999999999</v>
       </c>
       <c r="I6" t="n">
-        <v>43.10092749999999</v>
+        <v>42.793795</v>
       </c>
       <c r="J6" t="n">
-        <v>30.508495</v>
+        <v>30.91800499999999</v>
       </c>
       <c r="K6" t="n">
-        <v>93.16352499999998</v>
+        <v>92.75401499999998</v>
       </c>
       <c r="L6" t="n">
-        <v>21.6016525</v>
+        <v>21.3968975</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -3991,34 +3991,34 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>70.28384999999999</v>
+        <v>69.69815125</v>
       </c>
       <c r="D7" t="n">
-        <v>17.5709625</v>
+        <v>18.273801</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>35.25906474999999</v>
+        <v>35.610484</v>
       </c>
       <c r="G7" t="n">
-        <v>10.776857</v>
+        <v>10.5425775</v>
       </c>
       <c r="H7" t="n">
-        <v>3.63133225</v>
+        <v>5.154148999999999</v>
       </c>
       <c r="I7" t="n">
-        <v>49.08155524999999</v>
+        <v>48.84727574999999</v>
       </c>
       <c r="J7" t="n">
-        <v>35.25906474999999</v>
+        <v>35.37620449999999</v>
       </c>
       <c r="K7" t="n">
-        <v>105.07435575</v>
+        <v>104.957216</v>
       </c>
       <c r="L7" t="n">
-        <v>23.6622295</v>
+        <v>24.5993475</v>
       </c>
       <c r="M7" t="n">
         <v>0</v>
@@ -4062,34 +4062,34 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>77.34248457499999</v>
+        <v>79.16844542499997</v>
       </c>
       <c r="D8" t="n">
-        <v>19.694292025</v>
+        <v>18.650885825</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>40.43199024999999</v>
+        <v>38.60602939999999</v>
       </c>
       <c r="G8" t="n">
-        <v>10.825339325</v>
+        <v>12.651300175</v>
       </c>
       <c r="H8" t="n">
-        <v>3.391070149999999</v>
+        <v>3.651921699999999</v>
       </c>
       <c r="I8" t="n">
-        <v>54.51797394999998</v>
+        <v>54.90925127499999</v>
       </c>
       <c r="J8" t="n">
-        <v>39.77986137499999</v>
+        <v>38.99730672499999</v>
       </c>
       <c r="K8" t="n">
-        <v>117.774474825</v>
+        <v>116.8614944</v>
       </c>
       <c r="L8" t="n">
-        <v>27.38941274999999</v>
+        <v>27.25898697499999</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -4133,34 +4133,34 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>83.86370332749999</v>
+        <v>85.57230169749998</v>
       </c>
       <c r="D9" t="n">
-        <v>20.3607972425</v>
+        <v>21.927012415</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>42.43019285499999</v>
+        <v>43.42687523749999</v>
       </c>
       <c r="G9" t="n">
-        <v>12.52972138</v>
+        <v>12.1025717875</v>
       </c>
       <c r="H9" t="n">
-        <v>3.132430345</v>
+        <v>3.701963134999999</v>
       </c>
       <c r="I9" t="n">
-        <v>59.65855975249999</v>
+        <v>59.80094294999999</v>
       </c>
       <c r="J9" t="n">
-        <v>42.8573424475</v>
+        <v>42.99972564499999</v>
       </c>
       <c r="K9" t="n">
-        <v>127.290578565</v>
+        <v>128.71441054</v>
       </c>
       <c r="L9" t="n">
-        <v>30.0428546725</v>
+        <v>29.04617228999999</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -4225,7 +4225,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>4732.75</v>
+        <v>5507.625</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -4233,7 +4233,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>11731.75</v>
+        <v>5543.125</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -4241,7 +4241,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>5682.625</v>
+        <v>8933.125</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -4249,7 +4249,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>41924.75</v>
+        <v>20991.25</v>
       </c>
     </row>
   </sheetData>
@@ -4293,7 +4293,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -4310,7 +4310,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -4327,7 +4327,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -4344,7 +4344,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -4361,7 +4361,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -4378,7 +4378,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -4409,7 +4409,7 @@
         <v>16</v>
       </c>
       <c r="B9" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -4443,7 +4443,7 @@
         <v>18</v>
       </c>
       <c r="B11" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -4460,7 +4460,7 @@
         <v>19</v>
       </c>
       <c r="B12" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -4483,7 +4483,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -4500,7 +4500,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -4517,7 +4517,7 @@
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -4534,7 +4534,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -4568,7 +4568,7 @@
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
@@ -4605,7 +4605,7 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -4622,7 +4622,7 @@
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -4639,7 +4639,7 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -4656,7 +4656,7 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
